--- a/resources/experiment 1/metrics/MAPE/average time/Enfermedad renal terminal.xlsx
+++ b/resources/experiment 1/metrics/MAPE/average time/Enfermedad renal terminal.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.08393306476903352</v>
+        <v>0.08393306476903351</v>
       </c>
       <c r="C2" t="n">
         <v>0.08393306476903352</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08393306476903352</v>
+        <v>0.08393306476903351</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01141585614911812</v>
+        <v>0.0114887683902354</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01141585614911812</v>
+        <v>0.01204022561353205</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01141585614911812</v>
+        <v>0.01219454235707659</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009722296637627519</v>
+        <v>0.01180396784601077</v>
       </c>
       <c r="C4" t="n">
-        <v>0.009722296637627519</v>
+        <v>0.01163002958072543</v>
       </c>
       <c r="D4" t="n">
-        <v>0.009722296637627519</v>
+        <v>0.01133546773305232</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02888173428735126</v>
+        <v>0.009771057573552878</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02888173428735126</v>
+        <v>0.01040174262720288</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02888173428735126</v>
+        <v>0.01062304399256574</v>
       </c>
     </row>
   </sheetData>
